--- a/demo/ams_benchmark/vis/ieee39_vis.xlsx
+++ b/demo/ams_benchmark/vis/ieee39_vis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/icebar/CaseStudy/vis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/ams_benchmark/vis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0B791-819B-444A-A700-224FA594A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8480B67-6C24-6D4C-8F96-EA18BBF501E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4408,7 +4408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
